--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/4.TraBH/TBH210717_GPS368.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/4.TraBH/TBH210717_GPS368.xlsx
@@ -101,9 +101,6 @@
     <t>TG102LE</t>
   </si>
   <si>
-    <t>Người đại diện: ĐL Vạn Lợi</t>
-  </si>
-  <si>
     <t>Hà Nội, ngày 17 tháng 07 năm 2021</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>sim lỗi</t>
+  </si>
+  <si>
+    <t>Người đại diện: ĐL GPS368</t>
   </si>
 </sst>
 </file>
@@ -693,6 +693,51 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -746,51 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1169,77 +1169,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="34" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="37" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="37" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="40" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -1248,58 +1248,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="B7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1345,19 +1345,19 @@
         <v>868183037871337</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
@@ -1381,26 +1381,26 @@
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
+      <c r="G14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -1445,45 +1445,45 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
     </row>
     <row r="62" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
